--- a/tests/adaptive400/peak10k_09995_lin150k.xlsx
+++ b/tests/adaptive400/peak10k_09995_lin150k.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robrecht\IdeaProjects\thesis\tests\adaptive400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A9AD7B-954E-4A35-B3C2-E0A965E8EA25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536C65FE-AEFD-4177-9FA5-75CAF3CFC44D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1788" yWindow="1380" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>diff_abs</t>
   </si>
@@ -38,6 +49,15 @@
   </si>
   <si>
     <t>path</t>
+  </si>
+  <si>
+    <t>slip</t>
+  </si>
+  <si>
+    <t>best_path</t>
+  </si>
+  <si>
+    <t>correct</t>
   </si>
 </sst>
 </file>
@@ -13306,15 +13326,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>293369</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>331469</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13664,13 +13684,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:YZ6"/>
+  <dimension ref="A1:ABW15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:676" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:751" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15700,7 +15722,7 @@
         <v>10.20391525166745</v>
       </c>
     </row>
-    <row r="2" spans="1:676" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:751" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17730,7 +17752,7 @@
         <v>1.661431298975296</v>
       </c>
     </row>
-    <row r="3" spans="1:676" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:751" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -19760,7 +19782,7 @@
         <v>8.4200000000000017</v>
       </c>
     </row>
-    <row r="4" spans="1:676" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:751" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -21790,7 +21812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:676" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:751" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -23820,7 +23842,7 @@
         <v>1.4166804229028711</v>
       </c>
     </row>
-    <row r="6" spans="1:676" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:751" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25848,6 +25870,9063 @@
       </c>
       <c r="YZ6">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:751" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:BN7" si="0">(10-B3)/10</f>
+        <v>0.35</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="0"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="0"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="0"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="0"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="0"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="0"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="0"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="0"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="0"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="0"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="0"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="0"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="0"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="0"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="0"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="0"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="0"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="0"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="0"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="0"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" si="0"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="0"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" si="0"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" si="0"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" si="0"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="BN7">
+        <f t="shared" si="0"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="BO7">
+        <f t="shared" ref="BO7:DZ7" si="1">(10-BO3)/10</f>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="BP7">
+        <f t="shared" si="1"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="BQ7">
+        <f t="shared" si="1"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="BR7">
+        <f t="shared" si="1"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="BS7">
+        <f t="shared" si="1"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="BT7">
+        <f t="shared" si="1"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="BU7">
+        <f t="shared" si="1"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="BV7">
+        <f t="shared" si="1"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="BW7">
+        <f t="shared" si="1"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="BX7">
+        <f t="shared" si="1"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="BY7">
+        <f t="shared" si="1"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="BZ7">
+        <f t="shared" si="1"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="CA7">
+        <f t="shared" si="1"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="CB7">
+        <f t="shared" si="1"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="CC7">
+        <f t="shared" si="1"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="CD7">
+        <f t="shared" si="1"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="CE7">
+        <f t="shared" si="1"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="CF7">
+        <f t="shared" si="1"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="CG7">
+        <f t="shared" si="1"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="CH7">
+        <f t="shared" si="1"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="CI7">
+        <f t="shared" si="1"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="CJ7">
+        <f t="shared" si="1"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="CK7">
+        <f t="shared" si="1"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="CL7">
+        <f t="shared" si="1"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="CM7">
+        <f t="shared" si="1"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="CN7">
+        <f t="shared" si="1"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="CO7">
+        <f t="shared" si="1"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="CP7">
+        <f t="shared" si="1"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="CQ7">
+        <f t="shared" si="1"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="CR7">
+        <f t="shared" si="1"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="CS7">
+        <f t="shared" si="1"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="CT7">
+        <f t="shared" si="1"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="CU7">
+        <f t="shared" si="1"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="CV7">
+        <f t="shared" si="1"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="CW7">
+        <f t="shared" si="1"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="CX7">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="CY7">
+        <f t="shared" si="1"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="CZ7">
+        <f t="shared" si="1"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="DA7">
+        <f t="shared" si="1"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="DB7">
+        <f t="shared" si="1"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="DC7">
+        <f t="shared" si="1"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="DD7">
+        <f t="shared" si="1"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="DE7">
+        <f t="shared" si="1"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="DF7">
+        <f t="shared" si="1"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="DG7">
+        <f t="shared" si="1"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="DH7">
+        <f t="shared" si="1"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="DI7">
+        <f t="shared" si="1"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="DJ7">
+        <f t="shared" si="1"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="DK7">
+        <f t="shared" si="1"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="DL7">
+        <f t="shared" si="1"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="DM7">
+        <f t="shared" si="1"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="DN7">
+        <f t="shared" si="1"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="DO7">
+        <f t="shared" si="1"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="DP7">
+        <f t="shared" si="1"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="DQ7">
+        <f t="shared" si="1"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="DR7">
+        <f t="shared" si="1"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="DS7">
+        <f t="shared" si="1"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="DT7">
+        <f t="shared" si="1"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="DU7">
+        <f t="shared" si="1"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="DV7">
+        <f t="shared" si="1"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="DW7">
+        <f t="shared" si="1"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="DX7">
+        <f t="shared" si="1"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="DY7">
+        <f t="shared" si="1"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="DZ7">
+        <f t="shared" si="1"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="EA7">
+        <f t="shared" ref="EA7:GL7" si="2">(10-EA3)/10</f>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="EB7">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="EC7">
+        <f t="shared" si="2"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="ED7">
+        <f t="shared" si="2"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="EE7">
+        <f t="shared" si="2"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="EF7">
+        <f t="shared" si="2"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="EG7">
+        <f t="shared" si="2"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="EH7">
+        <f t="shared" si="2"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="EI7">
+        <f t="shared" si="2"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="EJ7">
+        <f t="shared" si="2"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="EK7">
+        <f t="shared" si="2"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="EL7">
+        <f t="shared" si="2"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="EM7">
+        <f t="shared" si="2"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="EN7">
+        <f t="shared" si="2"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="EO7">
+        <f t="shared" si="2"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="EP7">
+        <f t="shared" si="2"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="EQ7">
+        <f t="shared" si="2"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="ER7">
+        <f t="shared" si="2"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="ES7">
+        <f t="shared" si="2"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="ET7">
+        <f t="shared" si="2"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="EU7">
+        <f t="shared" si="2"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="EV7">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="EW7">
+        <f t="shared" si="2"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="EX7">
+        <f t="shared" si="2"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="EY7">
+        <f t="shared" si="2"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="EZ7">
+        <f t="shared" si="2"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="FA7">
+        <f t="shared" si="2"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="FB7">
+        <f t="shared" si="2"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="FC7">
+        <f t="shared" si="2"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="FD7">
+        <f t="shared" si="2"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="FE7">
+        <f t="shared" si="2"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="FF7">
+        <f t="shared" si="2"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="FG7">
+        <f t="shared" si="2"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="FH7">
+        <f t="shared" si="2"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="FI7">
+        <f t="shared" si="2"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="FJ7">
+        <f t="shared" si="2"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="FK7">
+        <f t="shared" si="2"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="FL7">
+        <f t="shared" si="2"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="FM7">
+        <f t="shared" si="2"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="FN7">
+        <f t="shared" si="2"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="FO7">
+        <f t="shared" si="2"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="FP7">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="FQ7">
+        <f t="shared" si="2"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="FR7">
+        <f t="shared" si="2"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="FS7">
+        <f t="shared" si="2"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="FT7">
+        <f t="shared" si="2"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="FU7">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="FV7">
+        <f t="shared" si="2"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="FW7">
+        <f t="shared" si="2"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="FX7">
+        <f t="shared" si="2"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="FY7">
+        <f t="shared" si="2"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="FZ7">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="GA7">
+        <f t="shared" si="2"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="GB7">
+        <f t="shared" si="2"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="GC7">
+        <f t="shared" si="2"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="GD7">
+        <f t="shared" si="2"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="GE7">
+        <f t="shared" si="2"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="GF7">
+        <f t="shared" si="2"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="GG7">
+        <f t="shared" si="2"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="GH7">
+        <f t="shared" si="2"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="GI7">
+        <f t="shared" si="2"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="GJ7">
+        <f t="shared" si="2"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="GK7">
+        <f t="shared" si="2"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="GL7">
+        <f t="shared" si="2"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="GM7">
+        <f t="shared" ref="GM7:IX7" si="3">(10-GM3)/10</f>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="GN7">
+        <f t="shared" si="3"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="GO7">
+        <f t="shared" si="3"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="GP7">
+        <f t="shared" si="3"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="GQ7">
+        <f t="shared" si="3"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="GR7">
+        <f t="shared" si="3"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="GS7">
+        <f t="shared" si="3"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="GT7">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="GU7">
+        <f t="shared" si="3"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="GV7">
+        <f t="shared" si="3"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="GW7">
+        <f t="shared" si="3"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="GX7">
+        <f t="shared" si="3"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="GY7">
+        <f t="shared" si="3"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="GZ7">
+        <f t="shared" si="3"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="HA7">
+        <f t="shared" si="3"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="HB7">
+        <f t="shared" si="3"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="HC7">
+        <f t="shared" si="3"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="HD7">
+        <f t="shared" si="3"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="HE7">
+        <f t="shared" si="3"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="HF7">
+        <f t="shared" si="3"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="HG7">
+        <f t="shared" si="3"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="HH7">
+        <f t="shared" si="3"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="HI7">
+        <f t="shared" si="3"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="HJ7">
+        <f t="shared" si="3"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="HK7">
+        <f t="shared" si="3"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="HL7">
+        <f t="shared" si="3"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="HM7">
+        <f t="shared" si="3"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="HN7">
+        <f t="shared" si="3"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="HO7">
+        <f t="shared" si="3"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="HP7">
+        <f t="shared" si="3"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="HQ7">
+        <f t="shared" si="3"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="HR7">
+        <f t="shared" si="3"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="HS7">
+        <f t="shared" si="3"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="HT7">
+        <f t="shared" si="3"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="HU7">
+        <f t="shared" si="3"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="HV7">
+        <f t="shared" si="3"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="HW7">
+        <f t="shared" si="3"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="HX7">
+        <f t="shared" si="3"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="HY7">
+        <f t="shared" si="3"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="HZ7">
+        <f t="shared" si="3"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="IA7">
+        <f t="shared" si="3"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="IB7">
+        <f t="shared" si="3"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="IC7">
+        <f t="shared" si="3"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="ID7">
+        <f t="shared" si="3"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="IE7">
+        <f t="shared" si="3"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="IF7">
+        <f t="shared" si="3"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="IG7">
+        <f t="shared" si="3"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="IH7">
+        <f t="shared" si="3"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="II7">
+        <f t="shared" si="3"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="IJ7">
+        <f t="shared" si="3"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="IK7">
+        <f t="shared" si="3"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="IL7">
+        <f t="shared" si="3"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="IM7">
+        <f t="shared" si="3"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="IN7">
+        <f t="shared" si="3"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="IO7">
+        <f t="shared" si="3"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="IP7">
+        <f t="shared" si="3"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="IQ7">
+        <f t="shared" si="3"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="IR7">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="IS7">
+        <f t="shared" si="3"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="IT7">
+        <f t="shared" si="3"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="IU7">
+        <f t="shared" si="3"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="IV7">
+        <f t="shared" si="3"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="IW7">
+        <f t="shared" si="3"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="IX7">
+        <f t="shared" si="3"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="IY7">
+        <f t="shared" ref="IY7:LJ7" si="4">(10-IY3)/10</f>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="IZ7">
+        <f t="shared" si="4"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="JA7">
+        <f t="shared" si="4"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="JB7">
+        <f t="shared" si="4"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="JC7">
+        <f t="shared" si="4"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="JD7">
+        <f t="shared" si="4"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="JE7">
+        <f t="shared" si="4"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="JF7">
+        <f t="shared" si="4"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="JG7">
+        <f t="shared" si="4"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="JH7">
+        <f t="shared" si="4"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="JI7">
+        <f t="shared" si="4"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="JJ7">
+        <f t="shared" si="4"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="JK7">
+        <f t="shared" si="4"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="JL7">
+        <f t="shared" si="4"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="JM7">
+        <f t="shared" si="4"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="JN7">
+        <f t="shared" si="4"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="JO7">
+        <f t="shared" si="4"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="JP7">
+        <f t="shared" si="4"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="JQ7">
+        <f t="shared" si="4"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="JR7">
+        <f t="shared" si="4"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="JS7">
+        <f t="shared" si="4"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="JT7">
+        <f t="shared" si="4"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="JU7">
+        <f t="shared" si="4"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="JV7">
+        <f t="shared" si="4"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="JW7">
+        <f t="shared" si="4"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="JX7">
+        <f t="shared" si="4"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="JY7">
+        <f t="shared" si="4"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="JZ7">
+        <f t="shared" si="4"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="KA7">
+        <f t="shared" si="4"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="KB7">
+        <f t="shared" si="4"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="KC7">
+        <f t="shared" si="4"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="KD7">
+        <f t="shared" si="4"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="KE7">
+        <f t="shared" si="4"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="KF7">
+        <f t="shared" si="4"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="KG7">
+        <f t="shared" si="4"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="KH7">
+        <f t="shared" si="4"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="KI7">
+        <f t="shared" si="4"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="KJ7">
+        <f t="shared" si="4"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="KK7">
+        <f t="shared" si="4"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="KL7">
+        <f t="shared" si="4"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="KM7">
+        <f t="shared" si="4"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="KN7">
+        <f t="shared" si="4"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="KO7">
+        <f t="shared" si="4"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="KP7">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="KQ7">
+        <f t="shared" si="4"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="KR7">
+        <f t="shared" si="4"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="KS7">
+        <f t="shared" si="4"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="KT7">
+        <f t="shared" si="4"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="KU7">
+        <f t="shared" si="4"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="KV7">
+        <f t="shared" si="4"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="KW7">
+        <f t="shared" si="4"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="KX7">
+        <f t="shared" si="4"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="KY7">
+        <f t="shared" si="4"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="KZ7">
+        <f t="shared" si="4"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="LA7">
+        <f t="shared" si="4"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="LB7">
+        <f t="shared" si="4"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="LC7">
+        <f t="shared" si="4"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="LD7">
+        <f t="shared" si="4"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="LE7">
+        <f t="shared" si="4"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="LF7">
+        <f t="shared" si="4"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="LG7">
+        <f t="shared" si="4"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="LH7">
+        <f t="shared" si="4"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="LI7">
+        <f t="shared" si="4"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="LJ7">
+        <f t="shared" si="4"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="LK7">
+        <f t="shared" ref="LK7:NV7" si="5">(10-LK3)/10</f>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="LL7">
+        <f t="shared" si="5"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="LM7">
+        <f t="shared" si="5"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="LN7">
+        <f t="shared" si="5"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="LO7">
+        <f t="shared" si="5"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="LP7">
+        <f t="shared" si="5"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="LQ7">
+        <f t="shared" si="5"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="LR7">
+        <f t="shared" si="5"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="LS7">
+        <f t="shared" si="5"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="LT7">
+        <f t="shared" si="5"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="LU7">
+        <f t="shared" si="5"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="LV7">
+        <f t="shared" si="5"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="LW7">
+        <f t="shared" si="5"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="LX7">
+        <f t="shared" si="5"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="LY7">
+        <f t="shared" si="5"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="LZ7">
+        <f t="shared" si="5"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="MA7">
+        <f t="shared" si="5"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="MB7">
+        <f t="shared" si="5"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="MC7">
+        <f t="shared" si="5"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="MD7">
+        <f t="shared" si="5"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="ME7">
+        <f t="shared" si="5"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="MF7">
+        <f t="shared" si="5"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="MG7">
+        <f t="shared" si="5"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="MH7">
+        <f t="shared" si="5"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="MI7">
+        <f t="shared" si="5"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="MJ7">
+        <f t="shared" si="5"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="MK7">
+        <f t="shared" si="5"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="ML7">
+        <f t="shared" si="5"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="MM7">
+        <f t="shared" si="5"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="MN7">
+        <f t="shared" si="5"/>
+        <v>0.35</v>
+      </c>
+      <c r="MO7">
+        <f t="shared" si="5"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="MP7">
+        <f t="shared" si="5"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="MQ7">
+        <f t="shared" si="5"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="MR7">
+        <f t="shared" si="5"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="MS7">
+        <f t="shared" si="5"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="MT7">
+        <f t="shared" si="5"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="MU7">
+        <f t="shared" si="5"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="MV7">
+        <f t="shared" si="5"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="MW7">
+        <f t="shared" si="5"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="MX7">
+        <f t="shared" si="5"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="MY7">
+        <f t="shared" si="5"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="MZ7">
+        <f t="shared" si="5"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="NA7">
+        <f t="shared" si="5"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="NB7">
+        <f t="shared" si="5"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="NC7">
+        <f t="shared" si="5"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="ND7">
+        <f t="shared" si="5"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="NE7">
+        <f t="shared" si="5"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="NF7">
+        <f t="shared" si="5"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="NG7">
+        <f t="shared" si="5"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="NH7">
+        <f t="shared" si="5"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="NI7">
+        <f t="shared" si="5"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="NJ7">
+        <f t="shared" si="5"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="NK7">
+        <f t="shared" si="5"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="NL7">
+        <f t="shared" si="5"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="NM7">
+        <f t="shared" si="5"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="NN7">
+        <f t="shared" si="5"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="NO7">
+        <f t="shared" si="5"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="NP7">
+        <f t="shared" si="5"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="NQ7">
+        <f t="shared" si="5"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="NR7">
+        <f t="shared" si="5"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="NS7">
+        <f t="shared" si="5"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="NT7">
+        <f t="shared" si="5"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="NU7">
+        <f t="shared" si="5"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="NV7">
+        <f t="shared" si="5"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="NW7">
+        <f t="shared" ref="NW7:QH7" si="6">(10-NW3)/10</f>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="NX7">
+        <f t="shared" si="6"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="NY7">
+        <f t="shared" si="6"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="NZ7">
+        <f t="shared" si="6"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="OA7">
+        <f t="shared" si="6"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="OB7">
+        <f t="shared" si="6"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="OC7">
+        <f t="shared" si="6"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="OD7">
+        <f t="shared" si="6"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="OE7">
+        <f t="shared" si="6"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="OF7">
+        <f t="shared" si="6"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="OG7">
+        <f t="shared" si="6"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="OH7">
+        <f t="shared" si="6"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="OI7">
+        <f t="shared" si="6"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="OJ7">
+        <f t="shared" si="6"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="OK7">
+        <f t="shared" si="6"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="OL7">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="OM7">
+        <f t="shared" si="6"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="ON7">
+        <f t="shared" si="6"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="OO7">
+        <f t="shared" si="6"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="OP7">
+        <f t="shared" si="6"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="OQ7">
+        <f t="shared" si="6"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="OR7">
+        <f t="shared" si="6"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="OS7">
+        <f t="shared" si="6"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="OT7">
+        <f t="shared" si="6"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="OU7">
+        <f t="shared" si="6"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="OV7">
+        <f t="shared" si="6"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="OW7">
+        <f t="shared" si="6"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="OX7">
+        <f t="shared" si="6"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="OY7">
+        <f t="shared" si="6"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="OZ7">
+        <f t="shared" si="6"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="PA7">
+        <f t="shared" si="6"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="PB7">
+        <f t="shared" si="6"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="PC7">
+        <f t="shared" si="6"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="PD7">
+        <f t="shared" si="6"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="PE7">
+        <f t="shared" si="6"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="PF7">
+        <f t="shared" si="6"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="PG7">
+        <f t="shared" si="6"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="PH7">
+        <f t="shared" si="6"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="PI7">
+        <f t="shared" si="6"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="PJ7">
+        <f t="shared" si="6"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="PK7">
+        <f t="shared" si="6"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="PL7">
+        <f t="shared" si="6"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="PM7">
+        <f t="shared" si="6"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="PN7">
+        <f t="shared" si="6"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="PO7">
+        <f t="shared" si="6"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="PP7">
+        <f t="shared" si="6"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="PQ7">
+        <f t="shared" si="6"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="PR7">
+        <f t="shared" si="6"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="PS7">
+        <f t="shared" si="6"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="PT7">
+        <f t="shared" si="6"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="PU7">
+        <f t="shared" si="6"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="PV7">
+        <f t="shared" si="6"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="PW7">
+        <f t="shared" si="6"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="PX7">
+        <f t="shared" si="6"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="PY7">
+        <f t="shared" si="6"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="PZ7">
+        <f t="shared" si="6"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="QA7">
+        <f t="shared" si="6"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="QB7">
+        <f t="shared" si="6"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="QC7">
+        <f t="shared" si="6"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="QD7">
+        <f t="shared" si="6"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="QE7">
+        <f t="shared" si="6"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="QF7">
+        <f t="shared" si="6"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="QG7">
+        <f t="shared" si="6"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="QH7">
+        <f t="shared" si="6"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="QI7">
+        <f t="shared" ref="QI7:ST7" si="7">(10-QI3)/10</f>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="QJ7">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="QK7">
+        <f t="shared" si="7"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="QL7">
+        <f t="shared" si="7"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="QM7">
+        <f t="shared" si="7"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="QN7">
+        <f t="shared" si="7"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="QO7">
+        <f t="shared" si="7"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="QP7">
+        <f t="shared" si="7"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="QQ7">
+        <f t="shared" si="7"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="QR7">
+        <f t="shared" si="7"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="QS7">
+        <f t="shared" si="7"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="QT7">
+        <f t="shared" si="7"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="QU7">
+        <f t="shared" si="7"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="QV7">
+        <f t="shared" si="7"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="QW7">
+        <f t="shared" si="7"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="QX7">
+        <f t="shared" si="7"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="QY7">
+        <f t="shared" si="7"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="QZ7">
+        <f t="shared" si="7"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="RA7">
+        <f t="shared" si="7"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="RB7">
+        <f t="shared" si="7"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="RC7">
+        <f t="shared" si="7"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="RD7">
+        <f t="shared" si="7"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="RE7">
+        <f t="shared" si="7"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="RF7">
+        <f t="shared" si="7"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="RG7">
+        <f t="shared" si="7"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="RH7">
+        <f t="shared" si="7"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="RI7">
+        <f t="shared" si="7"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="RJ7">
+        <f t="shared" si="7"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="RK7">
+        <f t="shared" si="7"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="RL7">
+        <f t="shared" si="7"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="RM7">
+        <f t="shared" si="7"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="RN7">
+        <f t="shared" si="7"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="RO7">
+        <f t="shared" si="7"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="RP7">
+        <f t="shared" si="7"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="RQ7">
+        <f t="shared" si="7"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="RR7">
+        <f t="shared" si="7"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="RS7">
+        <f t="shared" si="7"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="RT7">
+        <f t="shared" si="7"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="RU7">
+        <f t="shared" si="7"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="RV7">
+        <f t="shared" si="7"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="RW7">
+        <f t="shared" si="7"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="RX7">
+        <f t="shared" si="7"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="RY7">
+        <f t="shared" si="7"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="RZ7">
+        <f t="shared" si="7"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="SA7">
+        <f t="shared" si="7"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="SB7">
+        <f t="shared" si="7"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="SC7">
+        <f t="shared" si="7"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="SD7">
+        <f t="shared" si="7"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="SE7">
+        <f t="shared" si="7"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="SF7">
+        <f t="shared" si="7"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="SG7">
+        <f t="shared" si="7"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="SH7">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+      <c r="SI7">
+        <f t="shared" si="7"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="SJ7">
+        <f t="shared" si="7"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="SK7">
+        <f t="shared" si="7"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="SL7">
+        <f t="shared" si="7"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="SM7">
+        <f t="shared" si="7"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="SN7">
+        <f t="shared" si="7"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="SO7">
+        <f t="shared" si="7"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="SP7">
+        <f t="shared" si="7"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="SQ7">
+        <f t="shared" si="7"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="SR7">
+        <f t="shared" si="7"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="SS7">
+        <f t="shared" si="7"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="ST7">
+        <f t="shared" si="7"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="SU7">
+        <f t="shared" ref="SU7:VF7" si="8">(10-SU3)/10</f>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="SV7">
+        <f t="shared" si="8"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="SW7">
+        <f t="shared" si="8"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="SX7">
+        <f t="shared" si="8"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="SY7">
+        <f t="shared" si="8"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="SZ7">
+        <f t="shared" si="8"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="TA7">
+        <f t="shared" si="8"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="TB7">
+        <f t="shared" si="8"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="TC7">
+        <f t="shared" si="8"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="TD7">
+        <f t="shared" si="8"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="TE7">
+        <f t="shared" si="8"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="TF7">
+        <f t="shared" si="8"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="TG7">
+        <f t="shared" si="8"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="TH7">
+        <f t="shared" si="8"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="TI7">
+        <f t="shared" si="8"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="TJ7">
+        <f t="shared" si="8"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="TK7">
+        <f t="shared" si="8"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="TL7">
+        <f t="shared" si="8"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="TM7">
+        <f t="shared" si="8"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="TN7">
+        <f t="shared" si="8"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="TO7">
+        <f t="shared" si="8"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="TP7">
+        <f t="shared" si="8"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="TQ7">
+        <f t="shared" si="8"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="TR7">
+        <f t="shared" si="8"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="TS7">
+        <f t="shared" si="8"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="TT7">
+        <f t="shared" si="8"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="TU7">
+        <f t="shared" si="8"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="TV7">
+        <f t="shared" si="8"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="TW7">
+        <f t="shared" si="8"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="TX7">
+        <f t="shared" si="8"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="TY7">
+        <f t="shared" si="8"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="TZ7">
+        <f t="shared" si="8"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="UA7">
+        <f t="shared" si="8"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="UB7">
+        <f t="shared" si="8"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="UC7">
+        <f t="shared" si="8"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="UD7">
+        <f t="shared" si="8"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="UE7">
+        <f t="shared" si="8"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="UF7">
+        <f t="shared" si="8"/>
+        <v>0.35</v>
+      </c>
+      <c r="UG7">
+        <f t="shared" si="8"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="UH7">
+        <f t="shared" si="8"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="UI7">
+        <f t="shared" si="8"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="UJ7">
+        <f t="shared" si="8"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="UK7">
+        <f t="shared" si="8"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="UL7">
+        <f t="shared" si="8"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="UM7">
+        <f t="shared" si="8"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="UN7">
+        <f t="shared" si="8"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="UO7">
+        <f t="shared" si="8"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="UP7">
+        <f t="shared" si="8"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="UQ7">
+        <f t="shared" si="8"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="UR7">
+        <f t="shared" si="8"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="US7">
+        <f t="shared" si="8"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="UT7">
+        <f t="shared" si="8"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="UU7">
+        <f t="shared" si="8"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="UV7">
+        <f t="shared" si="8"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="UW7">
+        <f t="shared" si="8"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="UX7">
+        <f t="shared" si="8"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="UY7">
+        <f t="shared" si="8"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="UZ7">
+        <f t="shared" si="8"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="VA7">
+        <f t="shared" si="8"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="VB7">
+        <f t="shared" si="8"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="VC7">
+        <f t="shared" si="8"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="VD7">
+        <f t="shared" si="8"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="VE7">
+        <f t="shared" si="8"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="VF7">
+        <f t="shared" si="8"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="VG7">
+        <f t="shared" ref="VG7:XR7" si="9">(10-VG3)/10</f>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="VH7">
+        <f t="shared" si="9"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="VI7">
+        <f t="shared" si="9"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="VJ7">
+        <f t="shared" si="9"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="VK7">
+        <f t="shared" si="9"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="VL7">
+        <f t="shared" si="9"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="VM7">
+        <f t="shared" si="9"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="VN7">
+        <f t="shared" si="9"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="VO7">
+        <f t="shared" si="9"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="VP7">
+        <f t="shared" si="9"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="VQ7">
+        <f t="shared" si="9"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="VR7">
+        <f t="shared" si="9"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="VS7">
+        <f t="shared" si="9"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="VT7">
+        <f t="shared" si="9"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="VU7">
+        <f t="shared" si="9"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="VV7">
+        <f t="shared" si="9"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="VW7">
+        <f t="shared" si="9"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="VX7">
+        <f t="shared" si="9"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="VY7">
+        <f t="shared" si="9"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="VZ7">
+        <f t="shared" si="9"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="WA7">
+        <f t="shared" si="9"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="WB7">
+        <f t="shared" si="9"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="WC7">
+        <f t="shared" si="9"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="WD7">
+        <f t="shared" si="9"/>
+        <v>0.35</v>
+      </c>
+      <c r="WE7">
+        <f t="shared" si="9"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="WF7">
+        <f t="shared" si="9"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="WG7">
+        <f t="shared" si="9"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="WH7">
+        <f t="shared" si="9"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="WI7">
+        <f t="shared" si="9"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="WJ7">
+        <f t="shared" si="9"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="WK7">
+        <f t="shared" si="9"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="WL7">
+        <f t="shared" si="9"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="WM7">
+        <f t="shared" si="9"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="WN7">
+        <f t="shared" si="9"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="WO7">
+        <f t="shared" si="9"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="WP7">
+        <f t="shared" si="9"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="WQ7">
+        <f t="shared" si="9"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="WR7">
+        <f t="shared" si="9"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="WS7">
+        <f t="shared" si="9"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="WT7">
+        <f t="shared" si="9"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="WU7">
+        <f t="shared" si="9"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="WV7">
+        <f t="shared" si="9"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="WW7">
+        <f t="shared" si="9"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="WX7">
+        <f t="shared" si="9"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="WY7">
+        <f t="shared" si="9"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="WZ7">
+        <f t="shared" si="9"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="XA7">
+        <f t="shared" si="9"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="XB7">
+        <f t="shared" si="9"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="XC7">
+        <f t="shared" si="9"/>
+        <v>0.14999999999999983</v>
+      </c>
+      <c r="XD7">
+        <f t="shared" si="9"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="XE7">
+        <f t="shared" si="9"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="XF7">
+        <f t="shared" si="9"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="XG7">
+        <f t="shared" si="9"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="XH7">
+        <f t="shared" si="9"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="XI7">
+        <f t="shared" si="9"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="XJ7">
+        <f t="shared" si="9"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="XK7">
+        <f t="shared" si="9"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="XL7">
+        <f t="shared" si="9"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="XM7">
+        <f t="shared" si="9"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="XN7">
+        <f t="shared" si="9"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="XO7">
+        <f t="shared" si="9"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="XP7">
+        <f t="shared" si="9"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="XQ7">
+        <f t="shared" si="9"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="XR7">
+        <f t="shared" si="9"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="XS7">
+        <f t="shared" ref="XS7:AAD7" si="10">(10-XS3)/10</f>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="XT7">
+        <f t="shared" si="10"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="XU7">
+        <f t="shared" si="10"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="XV7">
+        <f t="shared" si="10"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="XW7">
+        <f t="shared" si="10"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="XX7">
+        <f t="shared" si="10"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="XY7">
+        <f t="shared" si="10"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="XZ7">
+        <f t="shared" si="10"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="YA7">
+        <f t="shared" si="10"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="YB7">
+        <f t="shared" si="10"/>
+        <v>0.35</v>
+      </c>
+      <c r="YC7">
+        <f t="shared" si="10"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="YD7">
+        <f t="shared" si="10"/>
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="YE7">
+        <f t="shared" si="10"/>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="YF7">
+        <f t="shared" si="10"/>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="YG7">
+        <f t="shared" si="10"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="YH7">
+        <f t="shared" si="10"/>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="YI7">
+        <f t="shared" si="10"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="YJ7">
+        <f t="shared" si="10"/>
+        <v>0.28599999999999992</v>
+      </c>
+      <c r="YK7">
+        <f t="shared" si="10"/>
+        <v>0.27799999999999991</v>
+      </c>
+      <c r="YL7">
+        <f t="shared" si="10"/>
+        <v>0.26999999999999991</v>
+      </c>
+      <c r="YM7">
+        <f t="shared" si="10"/>
+        <v>0.2619999999999999</v>
+      </c>
+      <c r="YN7">
+        <f t="shared" si="10"/>
+        <v>0.25399999999999989</v>
+      </c>
+      <c r="YO7">
+        <f t="shared" si="10"/>
+        <v>0.24599999999999991</v>
+      </c>
+      <c r="YP7">
+        <f t="shared" si="10"/>
+        <v>0.23799999999999991</v>
+      </c>
+      <c r="YQ7">
+        <f t="shared" si="10"/>
+        <v>0.2299999999999999</v>
+      </c>
+      <c r="YR7">
+        <f t="shared" si="10"/>
+        <v>0.22199999999999989</v>
+      </c>
+      <c r="YS7">
+        <f t="shared" si="10"/>
+        <v>0.21399999999999988</v>
+      </c>
+      <c r="YT7">
+        <f t="shared" si="10"/>
+        <v>0.20599999999999988</v>
+      </c>
+      <c r="YU7">
+        <f t="shared" si="10"/>
+        <v>0.19799999999999987</v>
+      </c>
+      <c r="YV7">
+        <f t="shared" si="10"/>
+        <v>0.18999999999999986</v>
+      </c>
+      <c r="YW7">
+        <f t="shared" si="10"/>
+        <v>0.18199999999999986</v>
+      </c>
+      <c r="YX7">
+        <f t="shared" si="10"/>
+        <v>0.17399999999999985</v>
+      </c>
+      <c r="YY7">
+        <f t="shared" si="10"/>
+        <v>0.16599999999999984</v>
+      </c>
+      <c r="YZ7">
+        <f t="shared" si="10"/>
+        <v>0.15799999999999984</v>
+      </c>
+      <c r="ZA7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZB7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZC7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZD7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZE7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZF7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZG7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZH7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZI7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZJ7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZK7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZL7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZM7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZN7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZO7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZP7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZQ7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZR7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZS7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZT7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZU7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZV7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZW7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZX7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZY7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="ZZ7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AAA7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AAB7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AAC7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AAD7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AAE7">
+        <f t="shared" ref="AAE7:ABW7" si="11">(10-AAE3)/10</f>
+        <v>1</v>
+      </c>
+      <c r="AAF7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAG7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAH7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAI7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAJ7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAK7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAL7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAM7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAN7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAO7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAP7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAQ7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAR7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAS7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAT7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAU7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAV7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAW7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAX7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAY7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AAZ7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABA7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABB7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABC7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABD7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABE7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABF7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABG7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABH7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABI7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABJ7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABK7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABL7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABM7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABN7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABO7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABP7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABQ7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABR7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABS7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABT7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABU7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABV7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="ABW7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:751" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>IF(B7&gt;=0.23,0,IF(B7&lt;=0.22,2,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:BN8" si="12">IF(C7&gt;=0.23,0,IF(C7&lt;=0.22,2,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <f t="shared" ref="BO8:DZ8" si="13">IF(BO7&gt;=0.23,0,IF(BO7&lt;=0.22,2,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BR8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BS8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BT8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BU8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BV8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BW8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BX8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BY8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BZ8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="CA8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="CB8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="CC8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="CD8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="CE8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="CF8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="CG8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="CH8">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="CI8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="DO8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DP8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DQ8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DR8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DS8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DT8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DU8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DV8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DW8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DX8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DY8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DZ8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="EA8">
+        <f t="shared" ref="EA8:GL8" si="14">IF(EA7&gt;=0.23,0,IF(EA7&lt;=0.22,2,-1))</f>
+        <v>2</v>
+      </c>
+      <c r="EB8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="EC8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="ED8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="EE8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="EF8">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="EG8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EI8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EJ8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EK8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EL8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EM8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EN8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EO8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EP8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EQ8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="ER8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="ES8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="ET8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EU8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EV8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EW8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EX8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EY8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EZ8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FA8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FB8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FC8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FD8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FE8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FF8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FG8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FH8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FI8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FJ8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FK8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="FL8">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="FM8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FN8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FO8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FP8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FQ8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FR8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FS8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FT8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FU8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FV8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FW8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FX8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FY8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="FZ8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="GA8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="GB8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="GC8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="GD8">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="GE8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="GF8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="GG8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="GH8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="GI8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="GJ8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="GK8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="GL8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="GM8">
+        <f t="shared" ref="GM8:IX8" si="15">IF(GM7&gt;=0.23,0,IF(GM7&lt;=0.22,2,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="GN8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GO8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GP8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GQ8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GR8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GS8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GT8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GU8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GV8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GW8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GX8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GY8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="GZ8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="HA8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="HB8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="HC8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="HD8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="HE8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="HF8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="HG8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="HH8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="HI8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="HJ8">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="HK8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HL8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HM8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HN8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HO8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HP8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HQ8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HR8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HS8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HT8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HU8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HV8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HW8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HX8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HY8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="HZ8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="IA8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="IB8">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="IC8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="ID8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IE8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IF8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IG8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IH8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="II8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IJ8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IK8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IL8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IM8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IN8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IO8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IP8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IQ8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IR8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IS8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IT8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IU8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IV8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IW8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IX8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="IY8">
+        <f t="shared" ref="IY8:LJ8" si="16">IF(IY7&gt;=0.23,0,IF(IY7&lt;=0.22,2,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="IZ8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="JA8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="JB8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="JC8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="JD8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="JE8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="JF8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="JG8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="JH8">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="JI8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JJ8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JK8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JL8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JM8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JN8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JO8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JP8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JQ8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JR8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JS8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JT8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JU8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JV8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JW8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JX8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JY8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="JZ8">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="KA8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KB8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KC8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KD8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KE8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KF8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KG8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KH8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KI8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KJ8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KK8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KL8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KM8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KN8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KO8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KP8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KQ8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KR8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KS8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KT8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KU8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KV8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KW8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KX8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KY8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="KZ8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="LA8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="LB8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="LC8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="LD8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="LE8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="LF8">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="LG8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="LH8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="LI8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="LJ8">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="LK8">
+        <f t="shared" ref="LK8:NV8" si="17">IF(LK7&gt;=0.23,0,IF(LK7&lt;=0.22,2,-1))</f>
+        <v>2</v>
+      </c>
+      <c r="LL8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LM8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LN8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LO8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LP8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LQ8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LR8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LS8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LT8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LU8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LV8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LW8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="LX8">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="LY8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="LZ8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MA8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MB8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MC8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MD8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="ME8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MF8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MG8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MH8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MI8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MJ8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MK8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="ML8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MM8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MN8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MO8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MP8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MQ8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MR8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MS8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MT8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MU8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MV8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MW8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MX8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MY8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="MZ8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="NA8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="NB8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="NC8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="ND8">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="NE8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NF8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NG8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NH8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NI8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NJ8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NK8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NL8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NM8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NN8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NO8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NP8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NQ8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NR8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NS8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NT8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NU8">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="NV8">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="NW8">
+        <f t="shared" ref="NW8:QH8" si="18">IF(NW7&gt;=0.23,0,IF(NW7&lt;=0.22,2,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="NX8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="NY8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="NZ8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OA8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OB8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OC8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OD8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OE8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OF8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OG8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OH8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OI8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OJ8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OK8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OL8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OM8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="ON8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OO8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OP8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OQ8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OR8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OS8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OT8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OU8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OV8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OW8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OX8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OY8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="OZ8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="PA8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="PB8">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="PC8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PD8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PE8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PF8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PG8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PH8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PI8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PJ8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PK8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PL8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PM8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PN8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PO8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PP8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PQ8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PR8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PS8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="PT8">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="PU8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="PV8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="PW8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="PX8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="PY8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="PZ8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="QA8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="QB8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="QC8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="QD8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="QE8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="QF8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="QG8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="QH8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="QI8">
+        <f t="shared" ref="QI8:ST8" si="19">IF(QI7&gt;=0.23,0,IF(QI7&lt;=0.22,2,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="QJ8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QK8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QL8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QM8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QN8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QO8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QP8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QQ8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QR8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QS8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QT8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QU8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QV8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QW8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QX8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QY8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="QZ8">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="RA8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RB8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RC8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RD8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RE8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RF8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RG8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RH8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RI8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RJ8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RK8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RL8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RM8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RN8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RO8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RP8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RQ8">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="RR8">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="RS8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="RT8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="RU8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="RV8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="RW8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="RX8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="RY8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="RZ8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SA8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SB8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SC8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SD8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SE8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SF8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SG8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SH8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SI8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SJ8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SK8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SL8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SM8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SN8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SO8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SP8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SQ8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SR8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SS8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="ST8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="SU8">
+        <f t="shared" ref="SU8:VF8" si="20">IF(SU7&gt;=0.23,0,IF(SU7&lt;=0.22,2,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="SV8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="SW8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="SX8">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="SY8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="SZ8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TA8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TB8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TC8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TD8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TE8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TF8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TG8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TH8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TI8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TJ8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TK8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TL8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TM8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TN8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TO8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="TP8">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="TQ8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="TR8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="TS8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="TT8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="TU8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="TV8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="TW8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="TX8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="TY8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="TZ8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UA8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UB8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UC8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UD8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UE8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UF8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UG8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UH8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UI8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UJ8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UK8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UL8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UM8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UN8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UO8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UP8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UQ8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UR8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="US8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UT8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UU8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="UV8">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="UW8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="UX8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="UY8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="UZ8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="VA8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="VB8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="VC8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="VD8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="VE8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="VF8">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="VG8">
+        <f t="shared" ref="VG8:XR8" si="21">IF(VG7&gt;=0.23,0,IF(VG7&lt;=0.22,2,-1))</f>
+        <v>2</v>
+      </c>
+      <c r="VH8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="VI8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="VJ8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="VK8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="VL8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="VM8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="VN8">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="VO8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VP8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VQ8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VR8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VS8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VT8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VU8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VV8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VW8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VX8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VY8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="VZ8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WA8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WB8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WC8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WD8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WE8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WF8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WG8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WH8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WI8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WJ8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WK8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WL8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WM8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WN8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WO8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WP8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WQ8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WR8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WS8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="WT8">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="WU8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="WV8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="WW8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="WX8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="WY8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="WZ8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XA8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XB8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XC8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XD8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XE8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XF8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XG8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XH8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XI8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XJ8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XK8">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="XL8">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="XM8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="XN8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="XO8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="XP8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="XQ8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="XR8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="XS8">
+        <f t="shared" ref="XS8:AAD8" si="22">IF(XS7&gt;=0.23,0,IF(XS7&lt;=0.22,2,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="XT8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="XU8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="XV8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="XW8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="XX8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="XY8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="XZ8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YA8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YB8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YC8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YD8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YE8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YF8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YG8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YH8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YI8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YJ8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YK8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YL8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YM8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YN8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YO8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YP8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YQ8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="YR8">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="YS8">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="YT8">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="YU8">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="YV8">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="YW8">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="YX8">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="YY8">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="YZ8">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="ZA8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZB8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZC8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZD8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZE8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZF8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZG8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZH8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZI8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZJ8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZK8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZL8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZM8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZN8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZO8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZP8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZQ8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZR8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZS8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZT8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZU8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZV8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZW8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZX8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZY8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="ZZ8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AAA8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AAB8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AAC8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AAD8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AAE8">
+        <f t="shared" ref="AAE8:ABW8" si="23">IF(AAE7&gt;=0.23,0,IF(AAE7&lt;=0.22,2,-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AAF8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAG8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAH8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAI8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAJ8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAK8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAL8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAM8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAN8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAO8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAP8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAQ8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAR8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAS8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAT8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAU8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAV8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAW8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAX8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAY8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AAZ8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABA8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABB8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABC8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABD8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABE8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABF8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABG8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABH8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABI8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABJ8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABK8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABL8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABM8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABN8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABO8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABP8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABQ8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABR8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABS8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABT8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABU8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABV8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="ABW8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:751" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>IF(B8=-1,"",IF(B8=B6,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:BN9" si="24">IF(C8=-1,"",IF(C8=C6,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="S9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BJ9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BN9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <f t="shared" ref="BO9:DZ9" si="25">IF(BO8=-1,"",IF(BO8=BO6,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="BP9" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="BQ9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BU9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BV9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BW9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BY9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BZ9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CA9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CB9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CC9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CD9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CE9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CG9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CH9" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="CI9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CU9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CV9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CW9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CX9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CY9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="CZ9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DA9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DB9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DC9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DD9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DE9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DF9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DG9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DH9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DI9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DJ9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DK9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DL9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DM9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DN9" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="DO9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DU9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DV9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DX9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DY9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="DZ9">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="EA9">
+        <f t="shared" ref="EA9:GL9" si="26">IF(EA8=-1,"",IF(EA8=EA6,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="EB9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EC9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="ED9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EE9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EF9" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="EG9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EI9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EJ9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EK9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EL9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EM9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EN9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EO9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EP9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EQ9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="ER9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="ES9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="ET9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EU9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EV9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EW9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="EX9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EY9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="EZ9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FA9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FB9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FC9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FD9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FE9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FF9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FG9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FH9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FI9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FJ9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FK9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FL9" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="FM9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="FN9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FO9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FP9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FQ9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FR9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FS9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FT9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FU9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FV9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FW9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FX9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FY9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="FZ9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="GA9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="GB9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="GC9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="GD9" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="GE9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="GF9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="GG9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="GH9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="GI9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="GJ9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="GK9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="GL9">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="GM9">
+        <f t="shared" ref="GM9:IX9" si="27">IF(GM8=-1,"",IF(GM8=GM6,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="GN9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GO9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GP9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GQ9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GR9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GS9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GT9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GU9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GV9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GW9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GX9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GY9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="GZ9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HA9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HB9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HC9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HD9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HE9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HF9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HG9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HH9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HI9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HJ9" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="HK9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="HL9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="HM9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="HN9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="HO9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="HP9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HQ9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HR9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HS9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HT9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HU9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HV9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HW9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HX9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="HY9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="HZ9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="IA9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IB9" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="IC9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="ID9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IE9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="IF9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="IG9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="IH9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="II9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IJ9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IK9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IL9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IM9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IN9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IO9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IP9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IQ9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IR9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IS9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IT9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IU9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IV9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IW9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IX9">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="IY9">
+        <f t="shared" ref="IY9:LJ9" si="28">IF(IY8=-1,"",IF(IY8=IY6,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="IZ9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JA9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JB9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JC9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="JD9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="JE9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="JF9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JG9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JH9" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="JI9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="JJ9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="JK9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="JL9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="JM9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JN9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JO9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JP9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JQ9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JR9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JS9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JT9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JU9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JV9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JW9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JX9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JY9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="JZ9" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="KA9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="KB9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="KC9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="KD9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="KE9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="KF9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="KG9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="KH9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="KI9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KJ9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KK9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KL9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KM9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="KN9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KO9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KP9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KQ9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KR9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KS9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KT9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KU9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KV9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KW9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KX9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KY9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="KZ9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="LA9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="LB9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="LC9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="LD9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="LE9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="LF9" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="LG9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="LH9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="LI9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="LJ9">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="LK9">
+        <f t="shared" ref="LK9:NV9" si="29">IF(LK8=-1,"",IF(LK8=LK6,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="LL9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LM9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LN9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LO9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LP9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LQ9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LR9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LS9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LT9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LU9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LV9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LW9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="LX9" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="LY9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="LZ9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="MA9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="MB9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="MC9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="MD9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="ME9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MF9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MG9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MH9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MI9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MJ9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MK9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="ML9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MM9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MN9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MO9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MP9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MQ9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MR9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MS9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MT9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MU9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MV9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MW9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MX9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MY9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="MZ9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NA9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NB9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NC9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="ND9" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="NE9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="NF9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="NG9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="NH9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="NI9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="NJ9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="NK9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NL9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NM9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NN9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NO9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NP9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NQ9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NR9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NS9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NT9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NU9">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="NV9" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="NW9">
+        <f t="shared" ref="NW9:QH9" si="30">IF(NW8=-1,"",IF(NW8=NW6,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="NX9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="NY9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="NZ9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="OA9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OB9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OC9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OD9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="OE9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OF9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OG9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OH9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OI9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OJ9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OK9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OL9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OM9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="ON9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OO9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OP9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OQ9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OR9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OS9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OT9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OU9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OV9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OW9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OX9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OY9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="OZ9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PA9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PB9" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="PC9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="PD9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="PE9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="PF9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PG9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PH9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PI9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PJ9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PK9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PL9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PM9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PN9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PO9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PP9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PQ9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PR9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PS9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="PT9" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="PU9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="PV9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="PW9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="PX9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="PY9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="PZ9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="QA9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="QB9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="QC9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="QD9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="QE9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="QF9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="QG9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="QH9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="QI9">
+        <f t="shared" ref="QI9:ST9" si="31">IF(QI8=-1,"",IF(QI8=QI6,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="QJ9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QK9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QL9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QM9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QN9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QO9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QP9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QQ9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QR9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QS9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QT9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QU9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QV9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QW9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QX9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QY9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="QZ9" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="RA9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RB9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RC9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RD9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RE9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RF9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RG9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RH9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RI9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="RJ9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="RK9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="RL9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="RM9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="RN9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="RO9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="RP9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="RQ9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="RR9" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="RS9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RT9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RU9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RV9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RW9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RX9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="RY9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="RZ9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SA9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SB9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SC9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SD9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SE9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SF9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SG9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SH9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SI9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SJ9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SK9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SL9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SM9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SN9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SO9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SP9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SQ9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SR9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SS9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="ST9">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="SU9">
+        <f t="shared" ref="SU9:VF9" si="32">IF(SU8=-1,"",IF(SU8=SU6,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="SV9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="SW9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="SX9" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="SY9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="SZ9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="TA9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="TB9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="TC9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TD9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TE9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TF9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TG9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TH9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TI9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TJ9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TK9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TL9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TM9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TN9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TO9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TP9" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="TQ9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="TR9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TS9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="TT9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="TU9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TV9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TW9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TX9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TY9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="TZ9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UA9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UB9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UC9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UD9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UE9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UF9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UG9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UH9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UI9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UJ9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UK9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UL9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UM9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UN9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UO9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UP9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UQ9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UR9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="US9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UT9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UU9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="UV9" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="UW9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="UX9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="UY9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="UZ9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="VA9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="VB9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="VC9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="VD9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="VE9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="VF9">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="VG9">
+        <f t="shared" ref="VG9:XR9" si="33">IF(VG8=-1,"",IF(VG8=VG6,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="VH9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="VI9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="VJ9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="VK9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="VL9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="VM9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="VN9" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="VO9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="VP9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="VQ9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="VR9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="VS9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="VT9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="VU9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="VV9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="VW9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="VX9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="VY9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="VZ9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WA9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WB9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WC9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WD9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WE9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WF9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WG9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WH9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WI9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WJ9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WK9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WL9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WM9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WN9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WO9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WP9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WQ9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WR9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WS9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WT9" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="WU9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="WV9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="WW9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WX9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WY9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="WZ9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XA9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XB9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XC9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XD9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XE9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XF9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XG9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XH9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XI9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XJ9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XK9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XL9" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="XM9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XN9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="XO9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="XP9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="XQ9">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="XR9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="XS9">
+        <f t="shared" ref="XS9:AAD9" si="34">IF(XS8=-1,"",IF(XS8=XS6,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="XT9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="XU9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="XV9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="XW9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="XX9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="XY9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="XZ9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YA9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="YB9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YC9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YD9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YE9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YF9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YG9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YH9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YI9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YJ9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YK9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YL9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YM9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YN9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YO9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YP9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YQ9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YR9" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="YS9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="YT9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="YU9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="YV9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="YW9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="YX9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="YY9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="YZ9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZA9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZB9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZC9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZD9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZE9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZF9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZG9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZH9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZI9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZJ9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZK9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZL9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZM9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZN9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZO9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZP9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZQ9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZR9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZS9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZT9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZU9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZV9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZW9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZX9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZY9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="ZZ9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AAA9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AAB9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AAC9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AAD9">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AAE9">
+        <f t="shared" ref="AAE9:ABW9" si="35">IF(AAE8=-1,"",IF(AAE8=AAE6,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AAF9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAG9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAH9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAI9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAJ9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAK9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAL9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAM9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAN9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAO9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAP9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAQ9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAR9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAS9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAT9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAU9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAV9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAW9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAX9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAY9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AAZ9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABA9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABB9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABC9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABD9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABE9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABF9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABG9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABH9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABI9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABJ9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABK9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABL9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABM9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABN9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABO9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABP9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABQ9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABR9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABS9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABT9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABU9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABV9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="ABW9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:751" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>AVERAGE(B2:NM2)</f>
+        <v>0.84256863897847889</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(NN2:ABW2)</f>
+        <v>1.9364904431659737</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(2:2)</f>
+        <v>1.3271354826111614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:751" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>AVERAGE(B5:NM5)</f>
+        <v>8.5731490892880749E-2</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(NN5:ABW5)</f>
+        <v>1.1164606127186889</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(5:5)</f>
+        <v>0.54230631670905338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:751" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>AVERAGE(B9:NM9)</f>
+        <v>0.72022160664819945</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(NN9:ABW9)</f>
+        <v>0.8204419889502762</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(9:9)</f>
+        <v>0.7704011065006916</v>
       </c>
     </row>
   </sheetData>
